--- a/2018elections/20180429-tpaw/build/data/maindata.xlsx
+++ b/2018elections/20180429-tpaw/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1080" windowWidth="32180" windowHeight="17680" tabRatio="500" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="820" yWindow="1080" windowWidth="32180" windowHeight="17680" tabRatio="500" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>tab</t>
   </si>
@@ -312,6 +312,12 @@
   <si>
     <t>Number of students with proficient MCA scores</t>
   </si>
+  <si>
+    <t>adjusted</t>
+  </si>
+  <si>
+    <t>University of Minnesota annual tuition for resident undergraduates adjusted as 2016 dollars</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +333,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,8 +394,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -604,7 +697,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="283">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -702,6 +795,50 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -799,6 +936,50 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,7 +1312,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2201,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B60"/>
+  <dimension ref="A2:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2407,148 +2588,156 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>84</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>86</v>
       </c>
     </row>
@@ -60633,10 +60822,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -60644,155 +60833,212 @@
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1999</v>
       </c>
       <c r="B2">
         <v>4160</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
         <v>4401</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2001</v>
       </c>
       <c r="B4">
         <v>5002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2002</v>
       </c>
       <c r="B5">
         <v>5720</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2003</v>
       </c>
       <c r="B6">
         <v>6562</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>8559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2004</v>
       </c>
       <c r="B7">
         <v>7477</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>9449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2005</v>
       </c>
       <c r="B8">
         <v>8040</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2006</v>
       </c>
       <c r="B9">
         <v>8563</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2007</v>
       </c>
       <c r="B10">
         <v>8950</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>10360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2008</v>
       </c>
       <c r="B11">
         <v>9600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>10701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2009</v>
       </c>
       <c r="B12">
         <v>10320</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>11545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13">
         <v>11094</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>12211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14">
         <v>11650</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15">
         <v>12060</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>12606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2013</v>
       </c>
       <c r="B16">
         <v>12060</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>12424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2014</v>
       </c>
       <c r="B17">
         <v>12060</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>12226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2015</v>
       </c>
       <c r="B18">
         <v>12546</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>12704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2016</v>
       </c>
       <c r="B19">
+        <v>12800</v>
+      </c>
+      <c r="C19">
         <v>12800</v>
       </c>
     </row>

--- a/2018elections/20180429-tpaw/build/data/maindata.xlsx
+++ b/2018elections/20180429-tpaw/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1080" windowWidth="32180" windowHeight="17680" tabRatio="500" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="820" yWindow="1080" windowWidth="32180" windowHeight="17680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>tab</t>
   </si>
@@ -333,6 +333,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,8 +395,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,7 +768,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="353">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -839,6 +910,41 @@
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -980,6 +1086,41 @@
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2384,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -2754,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2765,132 +2906,180 @@
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1999</v>
       </c>
       <c r="B2">
         <v>2122</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
         <v>2191</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2001</v>
       </c>
       <c r="B4">
         <v>2192</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2002</v>
       </c>
       <c r="B5">
         <v>2230</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2003</v>
       </c>
       <c r="B6">
         <v>2239</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2004</v>
       </c>
       <c r="B7">
         <v>2363</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2005</v>
       </c>
       <c r="B8">
         <v>2444</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2006</v>
       </c>
       <c r="B9">
         <v>2536</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2007</v>
       </c>
       <c r="B10">
         <v>2645</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2008</v>
       </c>
       <c r="B11">
         <v>2528</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2009</v>
       </c>
       <c r="B12">
         <v>2454</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13">
         <v>2634</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14">
         <v>2793</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15">
         <v>3006</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2013</v>
       </c>
       <c r="B16">
         <v>3128</v>
+      </c>
+      <c r="C16">
+        <v>3222</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11048,7 +11237,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11070,6 +11259,9 @@
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1999</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -60728,10 +60920,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -60752,41 +60944,49 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B2" s="8">
-        <v>0.06</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B3" s="8">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B4" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B5" s="8">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="8">
         <v>0.09</v>
@@ -60794,20 +60994,33 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="8"/>
-    </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="8"/>
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6.3E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2018elections/20180429-tpaw/build/data/maindata.xlsx
+++ b/2018elections/20180429-tpaw/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1120" windowWidth="32180" windowHeight="17440" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1100" yWindow="1120" windowWidth="32180" windowHeight="17440" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="139">
   <si>
     <t>tab</t>
   </si>
@@ -2228,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="I1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2644,8 +2644,8 @@
       </c>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="8" t="s">
-        <v>137</v>
+      <c r="I34" s="8">
+        <v>0.28000000000000003</v>
       </c>
       <c r="J34" s="7">
         <v>2014</v>
@@ -2701,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
